--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.12087120104923</v>
+        <v>0.0057055</v>
       </c>
       <c r="N2">
-        <v>1.12087120104923</v>
+        <v>0.011411</v>
       </c>
       <c r="O2">
-        <v>0.07531660040518587</v>
+        <v>0.000334938228146736</v>
       </c>
       <c r="P2">
-        <v>0.07531660040518587</v>
+        <v>0.000321009433024368</v>
       </c>
       <c r="Q2">
-        <v>44.28357234638483</v>
+        <v>0.23241328860525</v>
       </c>
       <c r="R2">
-        <v>44.28357234638483</v>
+        <v>0.9296531544209999</v>
       </c>
       <c r="S2">
-        <v>0.005144059443930888</v>
+        <v>1.864893129921606E-05</v>
       </c>
       <c r="T2">
-        <v>0.005144059443930888</v>
+        <v>1.228396161002429E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.7612556477358</v>
+        <v>1.315976333333333</v>
       </c>
       <c r="N3">
-        <v>13.7612556477358</v>
+        <v>3.947929</v>
       </c>
       <c r="O3">
-        <v>0.9246833995948142</v>
+        <v>0.07725366424848044</v>
       </c>
       <c r="P3">
-        <v>0.9246833995948142</v>
+        <v>0.1110614713794111</v>
       </c>
       <c r="Q3">
-        <v>543.6820568528816</v>
+        <v>53.6062373773865</v>
       </c>
       <c r="R3">
-        <v>543.6820568528816</v>
+        <v>321.637424264319</v>
       </c>
       <c r="S3">
-        <v>0.06315508598027891</v>
+        <v>0.00430138502002061</v>
       </c>
       <c r="T3">
-        <v>0.06315508598027891</v>
+        <v>0.004249952526080236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>330.770233336439</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>330.770233336439</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.5718139577408378</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.5718139577408378</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.12087120104923</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N4">
-        <v>1.12087120104923</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O4">
-        <v>0.07531660040518587</v>
+        <v>0.000177365705601146</v>
       </c>
       <c r="P4">
-        <v>0.07531660040518587</v>
+        <v>0.0002549846201851609</v>
       </c>
       <c r="Q4">
-        <v>370.7508287111485</v>
+        <v>0.123073878884</v>
       </c>
       <c r="R4">
-        <v>370.7508287111485</v>
+        <v>0.7384432733039999</v>
       </c>
       <c r="S4">
-        <v>0.04306708336127452</v>
+        <v>9.875495182782365E-06</v>
       </c>
       <c r="T4">
-        <v>0.04306708336127452</v>
+        <v>9.757411973820009E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>330.770233336439</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>330.770233336439</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.5718139577408378</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.5718139577408378</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>13.7612556477358</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N5">
-        <v>13.7612556477358</v>
+        <v>0.046774</v>
       </c>
       <c r="O5">
-        <v>0.9246833995948142</v>
+        <v>0.0009152806171434249</v>
       </c>
       <c r="P5">
-        <v>0.9246833995948142</v>
+        <v>0.001315826414887546</v>
       </c>
       <c r="Q5">
-        <v>4551.813741603959</v>
+        <v>0.635112269519</v>
       </c>
       <c r="R5">
-        <v>4551.813741603959</v>
+        <v>3.810673617114</v>
       </c>
       <c r="S5">
-        <v>0.5287468743795632</v>
+        <v>5.096165177399188E-05</v>
       </c>
       <c r="T5">
-        <v>0.5287468743795632</v>
+        <v>5.035229343153763E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>124.704849261112</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>124.704849261112</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.2155815917478311</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.2155815917478311</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.12087120104923</v>
+        <v>0.1436843333333333</v>
       </c>
       <c r="N6">
-        <v>1.12087120104923</v>
+        <v>0.431053</v>
       </c>
       <c r="O6">
-        <v>0.07531660040518587</v>
+        <v>0.008434909476664915</v>
       </c>
       <c r="P6">
-        <v>0.07531660040518587</v>
+        <v>0.01212620095815028</v>
       </c>
       <c r="Q6">
-        <v>139.7780741679658</v>
+        <v>5.8529749243805</v>
       </c>
       <c r="R6">
-        <v>139.7780741679658</v>
+        <v>35.117849546283</v>
       </c>
       <c r="S6">
-        <v>0.01623687260038531</v>
+        <v>0.0004696449498040476</v>
       </c>
       <c r="T6">
-        <v>0.01623687260038531</v>
+        <v>0.0004640293141605292</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>124.704849261112</v>
+        <v>40.7349555</v>
       </c>
       <c r="H7">
-        <v>124.704849261112</v>
+        <v>81.469911</v>
       </c>
       <c r="I7">
-        <v>0.2155815917478311</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J7">
-        <v>0.2155815917478311</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.7612556477358</v>
+        <v>15.5505055</v>
       </c>
       <c r="N7">
-        <v>13.7612556477358</v>
+        <v>31.101011</v>
       </c>
       <c r="O7">
-        <v>0.9246833995948142</v>
+        <v>0.9128838417239634</v>
       </c>
       <c r="P7">
-        <v>0.9246833995948142</v>
+        <v>0.8749205071943416</v>
       </c>
       <c r="Q7">
-        <v>1716.095311194519</v>
+        <v>633.4491495450052</v>
       </c>
       <c r="R7">
-        <v>1716.095311194519</v>
+        <v>2533.796598180021</v>
       </c>
       <c r="S7">
-        <v>0.1993447191474458</v>
+        <v>0.05082820239025177</v>
       </c>
       <c r="T7">
-        <v>0.1993447191474458</v>
+        <v>0.03348029315195364</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.3596523797394</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>39.3596523797394</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.06804239418868824</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.06804239418868824</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.12087120104923</v>
+        <v>0.0057055</v>
       </c>
       <c r="N8">
-        <v>1.12087120104923</v>
+        <v>0.011411</v>
       </c>
       <c r="O8">
-        <v>0.07531660040518587</v>
+        <v>0.000334938228146736</v>
       </c>
       <c r="P8">
-        <v>0.07531660040518587</v>
+        <v>0.000321009433024368</v>
       </c>
       <c r="Q8">
-        <v>44.11710083575869</v>
+        <v>1.999161023486667</v>
       </c>
       <c r="R8">
-        <v>44.11710083575869</v>
+        <v>11.99496614092</v>
       </c>
       <c r="S8">
-        <v>0.005124721813721573</v>
+        <v>0.0001604134462655297</v>
       </c>
       <c r="T8">
-        <v>0.005124721813721573</v>
+        <v>0.0001584953516135502</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.3596523797394</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>39.3596523797394</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.06804239418868824</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.06804239418868824</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.7612556477358</v>
+        <v>1.315976333333333</v>
       </c>
       <c r="N9">
-        <v>13.7612556477358</v>
+        <v>3.947929</v>
       </c>
       <c r="O9">
-        <v>0.9246833995948142</v>
+        <v>0.07725366424848044</v>
       </c>
       <c r="P9">
-        <v>0.9246833995948142</v>
+        <v>0.1110614713794111</v>
       </c>
       <c r="Q9">
-        <v>541.6382386036066</v>
+        <v>461.1074565648756</v>
       </c>
       <c r="R9">
-        <v>541.6382386036066</v>
+        <v>4149.96710908388</v>
       </c>
       <c r="S9">
-        <v>0.06291767237496666</v>
+        <v>0.03699943893328814</v>
       </c>
       <c r="T9">
-        <v>0.06291767237496666</v>
+        <v>0.05483554421175458</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.4013115348323</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>22.4013115348323</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.03872592306179204</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.03872592306179204</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.12087120104923</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N10">
-        <v>1.12087120104923</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O10">
-        <v>0.07531660040518587</v>
+        <v>0.000177365705601146</v>
       </c>
       <c r="P10">
-        <v>0.07531660040518587</v>
+        <v>0.0002549846201851609</v>
       </c>
       <c r="Q10">
-        <v>25.10898496512545</v>
+        <v>1.058650747342222</v>
       </c>
       <c r="R10">
-        <v>25.10898496512545</v>
+        <v>9.52785672608</v>
       </c>
       <c r="S10">
-        <v>0.002916704872566963</v>
+        <v>8.494654146296035E-05</v>
       </c>
       <c r="T10">
-        <v>0.002916704872566963</v>
+        <v>0.000125896228816512</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.4013115348323</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>22.4013115348323</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.03872592306179204</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.03872592306179204</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>13.7612556477358</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N11">
-        <v>13.7612556477358</v>
+        <v>0.046774</v>
       </c>
       <c r="O11">
-        <v>0.9246833995948142</v>
+        <v>0.0009152806171434249</v>
       </c>
       <c r="P11">
-        <v>0.9246833995948142</v>
+        <v>0.001315826414887546</v>
       </c>
       <c r="Q11">
-        <v>308.2701748754001</v>
+        <v>5.463077014142223</v>
       </c>
       <c r="R11">
-        <v>308.2701748754001</v>
+        <v>49.16769312728</v>
       </c>
       <c r="S11">
-        <v>0.03580921818922508</v>
+        <v>0.0004383593921434806</v>
       </c>
       <c r="T11">
-        <v>0.03580921818922508</v>
+        <v>0.000649676765960231</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.7135627023294</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H12">
-        <v>21.7135627023294</v>
+        <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.037536987836641</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J12">
-        <v>0.037536987836641</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.12087120104923</v>
+        <v>0.1436843333333333</v>
       </c>
       <c r="N12">
-        <v>1.12087120104923</v>
+        <v>0.431053</v>
       </c>
       <c r="O12">
-        <v>0.07531660040518587</v>
+        <v>0.008434909476664915</v>
       </c>
       <c r="P12">
-        <v>0.07531660040518587</v>
+        <v>0.01212620095815028</v>
       </c>
       <c r="Q12">
-        <v>24.33810710521772</v>
+        <v>50.34582751479555</v>
       </c>
       <c r="R12">
-        <v>24.33810710521772</v>
+        <v>453.11244763316</v>
       </c>
       <c r="S12">
-        <v>0.002827158313306613</v>
+        <v>0.004039768483807751</v>
       </c>
       <c r="T12">
-        <v>0.002827158313306613</v>
+        <v>0.005987196284206086</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,1540 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.7135627023294</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H13">
-        <v>21.7135627023294</v>
+        <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.037536987836641</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J13">
-        <v>0.037536987836641</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.7612556477358</v>
+        <v>15.5505055</v>
       </c>
       <c r="N13">
-        <v>13.7612556477358</v>
+        <v>31.101011</v>
       </c>
       <c r="O13">
-        <v>0.9246833995948142</v>
+        <v>0.9128838417239634</v>
       </c>
       <c r="P13">
-        <v>0.9246833995948142</v>
+        <v>0.8749205071943416</v>
       </c>
       <c r="Q13">
-        <v>298.8058873698959</v>
+        <v>5448.771271775487</v>
       </c>
       <c r="R13">
-        <v>298.8058873698959</v>
+        <v>32692.62763065292</v>
       </c>
       <c r="S13">
-        <v>0.03470982952333439</v>
+        <v>0.4372114938964287</v>
       </c>
       <c r="T13">
-        <v>0.03470982952333439</v>
+        <v>0.431983671368144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>243.8287033333334</v>
+      </c>
+      <c r="H14">
+        <v>731.4861100000001</v>
+      </c>
+      <c r="I14">
+        <v>0.3332781281688242</v>
+      </c>
+      <c r="J14">
+        <v>0.3435812836494235</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.0057055</v>
+      </c>
+      <c r="N14">
+        <v>0.011411</v>
+      </c>
+      <c r="O14">
+        <v>0.000334938228146736</v>
+      </c>
+      <c r="P14">
+        <v>0.000321009433024368</v>
+      </c>
+      <c r="Q14">
+        <v>1.391164666868333</v>
+      </c>
+      <c r="R14">
+        <v>8.346988001210001</v>
+      </c>
+      <c r="S14">
+        <v>0.0001116275857289268</v>
+      </c>
+      <c r="T14">
+        <v>0.000110292833062086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>243.8287033333334</v>
+      </c>
+      <c r="H15">
+        <v>731.4861100000001</v>
+      </c>
+      <c r="I15">
+        <v>0.3332781281688242</v>
+      </c>
+      <c r="J15">
+        <v>0.3435812836494235</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.947929</v>
+      </c>
+      <c r="O15">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P15">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q15">
+        <v>320.8728029740212</v>
+      </c>
+      <c r="R15">
+        <v>2887.85522676619</v>
+      </c>
+      <c r="S15">
+        <v>0.02574695661491638</v>
+      </c>
+      <c r="T15">
+        <v>0.03815864290053177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>243.8287033333334</v>
+      </c>
+      <c r="H16">
+        <v>731.4861100000001</v>
+      </c>
+      <c r="I16">
+        <v>0.3332781281688242</v>
+      </c>
+      <c r="J16">
+        <v>0.3435812836494235</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P16">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q16">
+        <v>0.7366877890044444</v>
+      </c>
+      <c r="R16">
+        <v>6.63019010104</v>
+      </c>
+      <c r="S16">
+        <v>5.911211036409267E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.760794311407828E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>243.8287033333334</v>
+      </c>
+      <c r="H17">
+        <v>731.4861100000001</v>
+      </c>
+      <c r="I17">
+        <v>0.3332781281688242</v>
+      </c>
+      <c r="J17">
+        <v>0.3435812836494235</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.046774</v>
+      </c>
+      <c r="O17">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P17">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q17">
+        <v>3.801614589904445</v>
+      </c>
+      <c r="R17">
+        <v>34.21453130914001</v>
+      </c>
+      <c r="S17">
+        <v>0.0003050430108307669</v>
+      </c>
+      <c r="T17">
+        <v>0.000452093328686882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>243.8287033333334</v>
+      </c>
+      <c r="H18">
+        <v>731.4861100000001</v>
+      </c>
+      <c r="I18">
+        <v>0.3332781281688242</v>
+      </c>
+      <c r="J18">
+        <v>0.3435812836494235</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.431053</v>
+      </c>
+      <c r="O18">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P18">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q18">
+        <v>35.03436468598111</v>
+      </c>
+      <c r="R18">
+        <v>315.30928217383</v>
+      </c>
+      <c r="S18">
+        <v>0.00281117084165636</v>
+      </c>
+      <c r="T18">
+        <v>0.004166335690992144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>243.8287033333334</v>
+      </c>
+      <c r="H19">
+        <v>731.4861100000001</v>
+      </c>
+      <c r="I19">
+        <v>0.3332781281688242</v>
+      </c>
+      <c r="J19">
+        <v>0.3435812836494235</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15.5505055</v>
+      </c>
+      <c r="N19">
+        <v>31.101011</v>
+      </c>
+      <c r="O19">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P19">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q19">
+        <v>3791.659592242869</v>
+      </c>
+      <c r="R19">
+        <v>22749.95755345721</v>
+      </c>
+      <c r="S19">
+        <v>0.3042442180053277</v>
+      </c>
+      <c r="T19">
+        <v>0.3006063109530365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>48.737294</v>
+      </c>
+      <c r="H20">
+        <v>146.211882</v>
+      </c>
+      <c r="I20">
+        <v>0.06661674320651284</v>
+      </c>
+      <c r="J20">
+        <v>0.06867617226847689</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0057055</v>
+      </c>
+      <c r="N20">
+        <v>0.011411</v>
+      </c>
+      <c r="O20">
+        <v>0.000334938228146736</v>
+      </c>
+      <c r="P20">
+        <v>0.000321009433024368</v>
+      </c>
+      <c r="Q20">
+        <v>0.278070630917</v>
+      </c>
+      <c r="R20">
+        <v>1.668423785502</v>
+      </c>
+      <c r="S20">
+        <v>2.231249393449552E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.204569912218759E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>48.737294</v>
+      </c>
+      <c r="H21">
+        <v>146.211882</v>
+      </c>
+      <c r="I21">
+        <v>0.06661674320651284</v>
+      </c>
+      <c r="J21">
+        <v>0.06867617226847689</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N21">
+        <v>3.947929</v>
+      </c>
+      <c r="O21">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P21">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q21">
+        <v>64.13712545470867</v>
+      </c>
+      <c r="R21">
+        <v>577.234129092378</v>
+      </c>
+      <c r="S21">
+        <v>0.005146387513003184</v>
+      </c>
+      <c r="T21">
+        <v>0.007627276740842953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>48.737294</v>
+      </c>
+      <c r="H22">
+        <v>146.211882</v>
+      </c>
+      <c r="I22">
+        <v>0.06661674320651284</v>
+      </c>
+      <c r="J22">
+        <v>0.06867617226847689</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P22">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q22">
+        <v>0.1472516109386666</v>
+      </c>
+      <c r="R22">
+        <v>1.325264498448</v>
+      </c>
+      <c r="S22">
+        <v>1.18155256636735E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.751136770164826E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>48.737294</v>
+      </c>
+      <c r="H23">
+        <v>146.211882</v>
+      </c>
+      <c r="I23">
+        <v>0.06661674320651284</v>
+      </c>
+      <c r="J23">
+        <v>0.06867617226847689</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.046774</v>
+      </c>
+      <c r="O23">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P23">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q23">
+        <v>0.7598793965186666</v>
+      </c>
+      <c r="R23">
+        <v>6.838914568668001</v>
+      </c>
+      <c r="S23">
+        <v>6.097301383414213E-05</v>
+      </c>
+      <c r="T23">
+        <v>9.036592154422946E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>48.737294</v>
+      </c>
+      <c r="H24">
+        <v>146.211882</v>
+      </c>
+      <c r="I24">
+        <v>0.06661674320651284</v>
+      </c>
+      <c r="J24">
+        <v>0.06867617226847689</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.431053</v>
+      </c>
+      <c r="O24">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P24">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q24">
+        <v>7.002785596860666</v>
+      </c>
+      <c r="R24">
+        <v>63.025070371746</v>
+      </c>
+      <c r="S24">
+        <v>0.0005619061985771683</v>
+      </c>
+      <c r="T24">
+        <v>0.0008327810659640984</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>48.737294</v>
+      </c>
+      <c r="H25">
+        <v>146.211882</v>
+      </c>
+      <c r="I25">
+        <v>0.06661674320651284</v>
+      </c>
+      <c r="J25">
+        <v>0.06867617226847689</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.5505055</v>
+      </c>
+      <c r="N25">
+        <v>31.101011</v>
+      </c>
+      <c r="O25">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P25">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q25">
+        <v>757.889558402117</v>
+      </c>
+      <c r="R25">
+        <v>4547.337350412702</v>
+      </c>
+      <c r="S25">
+        <v>0.06081334846150018</v>
+      </c>
+      <c r="T25">
+        <v>0.06008619147330177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>22.832077</v>
+      </c>
+      <c r="H26">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I26">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J26">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0057055</v>
+      </c>
+      <c r="N26">
+        <v>0.011411</v>
+      </c>
+      <c r="O26">
+        <v>0.000334938228146736</v>
+      </c>
+      <c r="P26">
+        <v>0.000321009433024368</v>
+      </c>
+      <c r="Q26">
+        <v>0.1302684153235</v>
+      </c>
+      <c r="R26">
+        <v>0.7816104919409999</v>
+      </c>
+      <c r="S26">
+        <v>1.045278754241946E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.032780153688096E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>22.832077</v>
+      </c>
+      <c r="H27">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I27">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J27">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N27">
+        <v>3.947929</v>
+      </c>
+      <c r="O27">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P27">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q27">
+        <v>30.04647297284433</v>
+      </c>
+      <c r="R27">
+        <v>270.418256755599</v>
+      </c>
+      <c r="S27">
+        <v>0.002410940500076331</v>
+      </c>
+      <c r="T27">
+        <v>0.003573168626211281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>22.832077</v>
+      </c>
+      <c r="H28">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I28">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J28">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P28">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q28">
+        <v>0.06898331530933331</v>
+      </c>
+      <c r="R28">
+        <v>0.6208498377839999</v>
+      </c>
+      <c r="S28">
+        <v>5.535247643179972E-06</v>
+      </c>
+      <c r="T28">
+        <v>8.203592422249501E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>22.832077</v>
+      </c>
+      <c r="H29">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I29">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J29">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.046774</v>
+      </c>
+      <c r="O29">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P29">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q29">
+        <v>0.3559825231993333</v>
+      </c>
+      <c r="R29">
+        <v>3.203842708794</v>
+      </c>
+      <c r="S29">
+        <v>2.856417401391218E-05</v>
+      </c>
+      <c r="T29">
+        <v>4.233393997774693E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>22.832077</v>
+      </c>
+      <c r="H30">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I30">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J30">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.431053</v>
+      </c>
+      <c r="O30">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P30">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q30">
+        <v>3.280611762360333</v>
+      </c>
+      <c r="R30">
+        <v>29.525505861243</v>
+      </c>
+      <c r="S30">
+        <v>0.0002632375443883117</v>
+      </c>
+      <c r="T30">
+        <v>0.0003901349431142889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>22.832077</v>
+      </c>
+      <c r="H31">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I31">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J31">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>15.5505055</v>
+      </c>
+      <c r="N31">
+        <v>31.101011</v>
+      </c>
+      <c r="O31">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P31">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q31">
+        <v>355.0503389649235</v>
+      </c>
+      <c r="R31">
+        <v>2130.302033789541</v>
+      </c>
+      <c r="S31">
+        <v>0.02848937519388753</v>
+      </c>
+      <c r="T31">
+        <v>0.02814872221578756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>25.082339</v>
+      </c>
+      <c r="H32">
+        <v>50.164678</v>
+      </c>
+      <c r="I32">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J32">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.0057055</v>
+      </c>
+      <c r="N32">
+        <v>0.011411</v>
+      </c>
+      <c r="O32">
+        <v>0.000334938228146736</v>
+      </c>
+      <c r="P32">
+        <v>0.000321009433024368</v>
+      </c>
+      <c r="Q32">
+        <v>0.1431072851645</v>
+      </c>
+      <c r="R32">
+        <v>0.572429140658</v>
+      </c>
+      <c r="S32">
+        <v>1.148298337614847E-05</v>
+      </c>
+      <c r="T32">
+        <v>7.56378607963902E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>25.082339</v>
+      </c>
+      <c r="H33">
+        <v>50.164678</v>
+      </c>
+      <c r="I33">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J33">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N33">
+        <v>3.947929</v>
+      </c>
+      <c r="O33">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P33">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q33">
+        <v>33.00776450864367</v>
+      </c>
+      <c r="R33">
+        <v>198.046587051862</v>
+      </c>
+      <c r="S33">
+        <v>0.002648555667175793</v>
+      </c>
+      <c r="T33">
+        <v>0.00261688637399029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>25.082339</v>
+      </c>
+      <c r="H34">
+        <v>50.164678</v>
+      </c>
+      <c r="I34">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J34">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P34">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q34">
+        <v>0.07578210689866666</v>
+      </c>
+      <c r="R34">
+        <v>0.454692641392</v>
+      </c>
+      <c r="S34">
+        <v>6.080785284457087E-06</v>
+      </c>
+      <c r="T34">
+        <v>6.008076156852868E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>25.082339</v>
+      </c>
+      <c r="H35">
+        <v>50.164678</v>
+      </c>
+      <c r="I35">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J35">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.046774</v>
+      </c>
+      <c r="O35">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P35">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q35">
+        <v>0.3910671081286667</v>
+      </c>
+      <c r="R35">
+        <v>2.346402648772</v>
+      </c>
+      <c r="S35">
+        <v>3.137937454713105E-05</v>
+      </c>
+      <c r="T35">
+        <v>3.100416528691925E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>25.082339</v>
+      </c>
+      <c r="H36">
+        <v>50.164678</v>
+      </c>
+      <c r="I36">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J36">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.431053</v>
+      </c>
+      <c r="O36">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P36">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q36">
+        <v>3.603939157655667</v>
+      </c>
+      <c r="R36">
+        <v>21.623634945934</v>
+      </c>
+      <c r="S36">
+        <v>0.0002891814584312755</v>
+      </c>
+      <c r="T36">
+        <v>0.0002857236597131398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>25.082339</v>
+      </c>
+      <c r="H37">
+        <v>50.164678</v>
+      </c>
+      <c r="I37">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J37">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>15.5505055</v>
+      </c>
+      <c r="N37">
+        <v>31.101011</v>
+      </c>
+      <c r="O37">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P37">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q37">
+        <v>390.0430505723645</v>
+      </c>
+      <c r="R37">
+        <v>1560.172202289458</v>
+      </c>
+      <c r="S37">
+        <v>0.03129720377656741</v>
+      </c>
+      <c r="T37">
+        <v>0.02061531803211814</v>
       </c>
     </row>
   </sheetData>
